--- a/model/generic_metrics.xlsx
+++ b/model/generic_metrics.xlsx
@@ -488,16 +488,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5196467282215977</v>
+        <v>0.5596767676767677</v>
       </c>
       <c r="G2" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5196153846153846</v>
+        <v>0.5589401846647932</v>
       </c>
     </row>
     <row r="3">
@@ -518,16 +518,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5004001600640255</v>
+        <v>0.5208992372541148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.5196158463385354</v>
       </c>
     </row>
     <row r="4">
@@ -548,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5801468788249694</v>
+        <v>0.5906321839080459</v>
       </c>
       <c r="G4" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5779710144927536</v>
+        <v>0.5873959068454482</v>
       </c>
     </row>
     <row r="5">
@@ -578,16 +578,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5012121212121212</v>
+        <v>0.5121428571428571</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4987980769230769</v>
+        <v>0.5068977992161592</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5396949016459253</v>
+        <v>0.6004801920768308</v>
       </c>
       <c r="G7" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5396314102564103</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -668,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6235343035343035</v>
+        <v>0.6476984126984127</v>
       </c>
       <c r="G8" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6221323529411765</v>
+        <v>0.6469289914066034</v>
       </c>
     </row>
     <row r="9">
@@ -698,16 +698,16 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6094117647058824</v>
+        <v>0.6255158730158731</v>
       </c>
       <c r="G9" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6124835164835164</v>
+        <v>0.6261601085481683</v>
       </c>
     </row>
     <row r="10">
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6206060606060606</v>
+        <v>0.6458275058275059</v>
       </c>
       <c r="G13" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6125714285714285</v>
+        <v>0.6340952380952382</v>
       </c>
     </row>
     <row r="14">
@@ -848,16 +848,16 @@
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.533125</v>
+        <v>0.5640465676435167</v>
       </c>
       <c r="G14" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5302350235023503</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -878,16 +878,16 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5895410628019324</v>
+        <v>0.5518</v>
       </c>
       <c r="G15" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5897115867751984</v>
+        <v>0.5504053648283456</v>
       </c>
     </row>
     <row r="16">
@@ -968,16 +968,16 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5910128152128979</v>
+        <v>0.5819166666666666</v>
       </c>
       <c r="G18" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5769650742673624</v>
+        <v>0.5660677318862426</v>
       </c>
     </row>
     <row r="19">
@@ -998,16 +998,16 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6134455128205129</v>
+        <v>0.6356924315619967</v>
       </c>
       <c r="G19" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6101950195019502</v>
+        <v>0.6297409740974098</v>
       </c>
     </row>
     <row r="20">
@@ -1031,13 +1031,13 @@
         <v>0.74</v>
       </c>
       <c r="F20" t="n">
-        <v>0.715</v>
+        <v>0.7228368794326241</v>
       </c>
       <c r="G20" t="n">
         <v>0.74</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6836314363143632</v>
+        <v>0.6731112686038272</v>
       </c>
     </row>
     <row r="21">
@@ -1058,16 +1058,16 @@
         <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6885714285714286</v>
+        <v>0.6727843137254902</v>
       </c>
       <c r="G21" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6925874125874125</v>
+        <v>0.6781691601244261</v>
       </c>
     </row>
     <row r="22">
@@ -1088,16 +1088,16 @@
         <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6671618037135277</v>
+        <v>0.655813953488372</v>
       </c>
       <c r="G22" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.670630464795214</v>
+        <v>0.6632911392405063</v>
       </c>
     </row>
     <row r="23">
@@ -1178,16 +1178,16 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7425</v>
+        <v>0.7136769759450172</v>
       </c>
       <c r="G25" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6610714285714286</v>
+        <v>0.641099446459248</v>
       </c>
     </row>
     <row r="26">
@@ -1208,16 +1208,16 @@
         <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6220883924235064</v>
+        <v>0.6511764705882354</v>
       </c>
       <c r="G26" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5920050681026291</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="27">
@@ -1238,16 +1238,16 @@
         <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6396457326892109</v>
+        <v>0.6703875968992247</v>
       </c>
       <c r="G27" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6395664391810517</v>
+        <v>0.6685028732735154</v>
       </c>
     </row>
     <row r="28">
@@ -1268,16 +1268,16 @@
         <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6382089552238805</v>
+        <v>0.6137142857142857</v>
       </c>
       <c r="G28" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6190600684718333</v>
+        <v>0.6011244979919679</v>
       </c>
     </row>
     <row r="29">
@@ -1358,16 +1358,16 @@
         <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5764992389649923</v>
+        <v>0.5905197505197505</v>
       </c>
       <c r="G31" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="H31" t="n">
-        <v>0.54592</v>
+        <v>0.5542342342342342</v>
       </c>
     </row>
   </sheetData>
